--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1637732.143827565</v>
+        <v>-1640006.163955003</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7230781.01511738</v>
+        <v>7230781.015117378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>181.66436958047</v>
+        <v>263.6445988875769</v>
       </c>
       <c r="H2" t="n">
-        <v>298.9701405510535</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.0217950910656</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>70.91951642794398</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.3799638097595</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>155.7832003779492</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6710516650733</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7408432413276</v>
+        <v>105.7408432413275</v>
       </c>
       <c r="I3" t="n">
-        <v>66.24376372694837</v>
+        <v>66.24376372694822</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.40598506653474</v>
+        <v>58.40598506653448</v>
       </c>
       <c r="S3" t="n">
-        <v>20.20460265182442</v>
+        <v>159.1924194169439</v>
       </c>
       <c r="T3" t="n">
         <v>197.4542208317152</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>30.74772111512438</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.609106677458411</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.2147226037219</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375616</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.9537855184187</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.9441304121513</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>270.5807709798343</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>145.5581207567638</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.85220836429036</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>118.2537958723261</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>46.9900712465672</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>98.08828121259629</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.12755686036095</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9198292231115</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.117663170202472</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>226.5536392728747</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,7 +1661,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>38.54665481630242</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465677</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>51.57870353610272</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>37.38100496017431</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>70.01987889555218</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>165.06359219706</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>33.84044882389509</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840143</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>81.17400253769567</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T28" t="n">
-        <v>200.8894580702393</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>284.1735591477697</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433891</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3275,7 +3275,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231194</v>
       </c>
       <c r="G35" t="n">
         <v>363.9465890348609</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>891.6475249912542</v>
+        <v>870.5922300825769</v>
       </c>
       <c r="C2" t="n">
-        <v>891.6475249912542</v>
+        <v>870.5922300825769</v>
       </c>
       <c r="D2" t="n">
-        <v>533.3818263845037</v>
+        <v>870.5922300825769</v>
       </c>
       <c r="E2" t="n">
-        <v>533.3818263845037</v>
+        <v>484.8039774843326</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3818263845037</v>
+        <v>477.8584767351292</v>
       </c>
       <c r="G2" t="n">
-        <v>349.8824631719077</v>
+        <v>211.550801091112</v>
       </c>
       <c r="H2" t="n">
-        <v>47.89242221124763</v>
+        <v>211.550801091112</v>
       </c>
       <c r="I2" t="n">
-        <v>47.89242221124763</v>
+        <v>47.89242221124781</v>
       </c>
       <c r="J2" t="n">
-        <v>141.6681220034133</v>
+        <v>141.6681220034143</v>
       </c>
       <c r="K2" t="n">
-        <v>402.9583913971211</v>
+        <v>402.958391397123</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883415</v>
+        <v>779.3887029883444</v>
       </c>
       <c r="M2" t="n">
-        <v>1214.846500462593</v>
+        <v>1214.846500462597</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.718462811275</v>
+        <v>1642.718462811281</v>
       </c>
       <c r="O2" t="n">
-        <v>2001.558186006095</v>
+        <v>2001.558186006102</v>
       </c>
       <c r="P2" t="n">
-        <v>2270.145204794929</v>
+        <v>2270.145204794937</v>
       </c>
       <c r="Q2" t="n">
-        <v>2394.621110562382</v>
+        <v>2394.621110562391</v>
       </c>
       <c r="R2" t="n">
-        <v>2394.621110562382</v>
+        <v>2322.985235382649</v>
       </c>
       <c r="S2" t="n">
-        <v>2394.621110562382</v>
+        <v>2140.783251736427</v>
       </c>
       <c r="T2" t="n">
-        <v>2394.621110562382</v>
+        <v>1983.426483677893</v>
       </c>
       <c r="U2" t="n">
-        <v>2394.621110562382</v>
+        <v>1983.426483677893</v>
       </c>
       <c r="V2" t="n">
-        <v>2394.621110562382</v>
+        <v>1983.426483677893</v>
       </c>
       <c r="W2" t="n">
-        <v>2041.852455292267</v>
+        <v>1630.657828407778</v>
       </c>
       <c r="X2" t="n">
-        <v>1668.386697031188</v>
+        <v>1257.192070146699</v>
       </c>
       <c r="Y2" t="n">
-        <v>1278.247365055376</v>
+        <v>1257.192070146699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>814.372237410008</v>
+        <v>850.7736993526772</v>
       </c>
       <c r="C3" t="n">
-        <v>814.372237410008</v>
+        <v>676.3206700715502</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4378277487567</v>
+        <v>527.386260410299</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2003727433013</v>
+        <v>368.1488054048434</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6658147701863</v>
+        <v>221.6142474317284</v>
       </c>
       <c r="G3" t="n">
         <v>221.6142474317284</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8053148647308</v>
+        <v>114.8053148647309</v>
       </c>
       <c r="I3" t="n">
-        <v>47.89242221124763</v>
+        <v>47.89242221124781</v>
       </c>
       <c r="J3" t="n">
-        <v>110.0512068966009</v>
+        <v>47.89242221124781</v>
       </c>
       <c r="K3" t="n">
-        <v>342.9113135442391</v>
+        <v>280.7525288588866</v>
       </c>
       <c r="L3" t="n">
-        <v>717.4248599408248</v>
+        <v>655.2660752554732</v>
       </c>
       <c r="M3" t="n">
-        <v>1005.655688461797</v>
+        <v>1144.284940877818</v>
       </c>
       <c r="N3" t="n">
-        <v>1523.324441723572</v>
+        <v>1523.324441723579</v>
       </c>
       <c r="O3" t="n">
-        <v>1930.474537907024</v>
+        <v>1930.474537907032</v>
       </c>
       <c r="P3" t="n">
-        <v>2240.245317403384</v>
+        <v>2240.245317403393</v>
       </c>
       <c r="Q3" t="n">
-        <v>2394.621110562382</v>
+        <v>2394.621110562391</v>
       </c>
       <c r="R3" t="n">
-        <v>2335.625166050731</v>
+        <v>2335.62516605074</v>
       </c>
       <c r="S3" t="n">
-        <v>2315.216476503433</v>
+        <v>2174.824742397261</v>
       </c>
       <c r="T3" t="n">
-        <v>2115.76776859261</v>
+        <v>1975.376034486437</v>
       </c>
       <c r="U3" t="n">
-        <v>1887.588838360507</v>
+        <v>1747.197104254335</v>
       </c>
       <c r="V3" t="n">
-        <v>1652.436730128764</v>
+        <v>1512.044996022592</v>
       </c>
       <c r="W3" t="n">
-        <v>1398.199373400563</v>
+        <v>1257.80763929439</v>
       </c>
       <c r="X3" t="n">
-        <v>1190.34787319503</v>
+        <v>1226.749335137699</v>
       </c>
       <c r="Y3" t="n">
-        <v>982.5875744300761</v>
+        <v>1018.989036372745</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>585.4546332130423</v>
+        <v>1967.828280873516</v>
       </c>
       <c r="C4" t="n">
-        <v>416.5184502851354</v>
+        <v>1967.828280873516</v>
       </c>
       <c r="D4" t="n">
-        <v>266.4018108727996</v>
+        <v>1817.711641461181</v>
       </c>
       <c r="E4" t="n">
-        <v>266.4018108727996</v>
+        <v>1817.711641461181</v>
       </c>
       <c r="F4" t="n">
-        <v>266.4018108727996</v>
+        <v>1817.711641461181</v>
       </c>
       <c r="G4" t="n">
-        <v>260.7360465521346</v>
+        <v>1817.711641461181</v>
       </c>
       <c r="H4" t="n">
-        <v>101.933296447365</v>
+        <v>1817.711641461181</v>
       </c>
       <c r="I4" t="n">
-        <v>101.933296447365</v>
+        <v>1817.711641461181</v>
       </c>
       <c r="J4" t="n">
-        <v>47.89242221124763</v>
+        <v>1817.711641461181</v>
       </c>
       <c r="K4" t="n">
-        <v>90.69073642000082</v>
+        <v>1860.509955669934</v>
       </c>
       <c r="L4" t="n">
-        <v>200.984278266308</v>
+        <v>1970.803497516242</v>
       </c>
       <c r="M4" t="n">
-        <v>327.6624769420741</v>
+        <v>2097.481696192008</v>
       </c>
       <c r="N4" t="n">
-        <v>456.7631676148796</v>
+        <v>2226.582386864814</v>
       </c>
       <c r="O4" t="n">
-        <v>559.9922554890147</v>
+        <v>2329.81147473895</v>
       </c>
       <c r="P4" t="n">
-        <v>624.801891312455</v>
+        <v>2394.621110562391</v>
       </c>
       <c r="Q4" t="n">
-        <v>585.4546332130423</v>
+        <v>2394.621110562391</v>
       </c>
       <c r="R4" t="n">
-        <v>585.4546332130423</v>
+        <v>2241.142190954157</v>
       </c>
       <c r="S4" t="n">
-        <v>585.4546332130423</v>
+        <v>2241.142190954157</v>
       </c>
       <c r="T4" t="n">
-        <v>585.4546332130423</v>
+        <v>2241.142190954157</v>
       </c>
       <c r="U4" t="n">
-        <v>585.4546332130423</v>
+        <v>2241.142190954157</v>
       </c>
       <c r="V4" t="n">
-        <v>585.4546332130423</v>
+        <v>2241.142190954157</v>
       </c>
       <c r="W4" t="n">
-        <v>585.4546332130423</v>
+        <v>1967.828280873516</v>
       </c>
       <c r="X4" t="n">
-        <v>585.4546332130423</v>
+        <v>1967.828280873516</v>
       </c>
       <c r="Y4" t="n">
-        <v>585.4546332130423</v>
+        <v>1967.828280873516</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>1485.384143294141</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1485.384143294141</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1485.384143294141</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1099.595890695897</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2558.431302190847</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2558.431302190847</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U5" t="n">
-        <v>2304.669516828938</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2304.669516828938</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1951.900861558824</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>1578.435103297744</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1578.435103297744</v>
+        <v>1871.983983358263</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
         <v>211.6913543878343</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>466.3758425937212</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
         <v>1036.358670716696</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.6828813766</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.6828813766</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>1504.400259589023</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>473.4444960005474</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>473.4444960005474</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>326.554548502637</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>326.554548502637</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5045,22 +5045,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2047.844055175503</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>3027.59632740215</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>3907.560977731604</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.9233744498081</v>
+        <v>392.840469530306</v>
       </c>
       <c r="C13" t="n">
-        <v>656.9233744498081</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D13" t="n">
-        <v>506.8067350374723</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U13" t="n">
-        <v>1314.048906629465</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V13" t="n">
-        <v>1059.364418423578</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W13" t="n">
-        <v>1059.364418423578</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="X13" t="n">
-        <v>1059.364418423578</v>
+        <v>613.6330486738361</v>
       </c>
       <c r="Y13" t="n">
-        <v>838.5718392800478</v>
+        <v>392.840469530306</v>
       </c>
     </row>
     <row r="14">
@@ -5282,22 +5282,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>1941.005908766399</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,13 +5309,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.416897868939</v>
+        <v>693.8660438039706</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410321</v>
+        <v>524.9298608760637</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286964</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5464,22 +5464,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384227</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="W16" t="n">
-        <v>1111.857941842709</v>
+        <v>1096.30708777774</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.857941842709</v>
+        <v>1096.30708777774</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.0653626991788</v>
+        <v>875.5145086342103</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5519,22 +5519,22 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846824</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1918.58487523584</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1726.898991062666</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1726.898991062666</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1183.111635982423</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W19" t="n">
-        <v>893.6944659454626</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="X19" t="n">
-        <v>665.7049150474453</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.9123359039152</v>
+        <v>803.8133219477185</v>
       </c>
     </row>
     <row r="20">
@@ -5729,49 +5729,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L20" t="n">
-        <v>1682.725100522032</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.5107908505465</v>
+        <v>653.747893203736</v>
       </c>
       <c r="C22" t="n">
-        <v>707.5107908505465</v>
+        <v>653.747893203736</v>
       </c>
       <c r="D22" t="n">
-        <v>557.3941514382108</v>
+        <v>653.747893203736</v>
       </c>
       <c r="E22" t="n">
-        <v>409.4810578558177</v>
+        <v>505.8347996213429</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>505.8347996213429</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1922.161194565416</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1700.394579134942</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1700.394579134942</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1445.710090929055</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W22" t="n">
-        <v>1156.292920892094</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="X22" t="n">
-        <v>928.3033699940767</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="Y22" t="n">
-        <v>707.5107908505465</v>
+        <v>653.747893203736</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,52 +5987,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6078,16 +6078,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>410.7144041584436</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C25" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1874.349524147435</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1585.246657273078</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1330.562169067191</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.144999030231</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X25" t="n">
-        <v>813.1554481322135</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y25" t="n">
-        <v>592.3628689886833</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6227,49 +6227,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1784.466183544592</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,40 +6303,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>410.7144041584436</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1471.908480173665</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1182.805613299309</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>928.1211250934216</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>638.7039550564609</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>410.7144041584436</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>410.7144041584436</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193958</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420605</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604875</v>
@@ -6531,37 +6531,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>676.4156786811474</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.299466965542</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.614978759656</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.197808722695</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>897.2082578246775</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.4156786811474</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215058</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416721</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774098</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E34" t="n">
-        <v>463.89815074309</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F34" t="n">
-        <v>364.457836193253</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,7 +6877,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036721</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467807</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M35" t="n">
-        <v>2200.835586644152</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N35" t="n">
-        <v>2747.614403702934</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O35" t="n">
-        <v>3250.586874582271</v>
+        <v>2959.066785849466</v>
       </c>
       <c r="P35" t="n">
-        <v>3645.361240939449</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q35" t="n">
         <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309627</v>
@@ -6971,16 +6971,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
         <v>786.332686498217</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="38">
@@ -7154,49 +7154,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467795</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398493</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668979</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L38" t="n">
-        <v>1635.769886219269</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M38" t="n">
-        <v>2169.301790891193</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N38" t="n">
-        <v>2716.080607949976</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O38" t="n">
-        <v>3219.053078829313</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P38" t="n">
-        <v>3613.827445186491</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
@@ -7208,16 +7208,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643395</v>
@@ -7327,16 +7327,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7360,22 +7360,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7391,49 +7391,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467795</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398493</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668979</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L41" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>2200.835586644152</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N41" t="n">
-        <v>2747.614403702934</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O41" t="n">
-        <v>3250.586874582271</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P41" t="n">
-        <v>3645.361240939449</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q41" t="n">
         <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309627</v>
@@ -7445,16 +7445,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302709</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
         <v>786.3326864982171</v>
@@ -7597,7 +7597,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7628,49 +7628,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398493</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668979</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L44" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424367</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P44" t="n">
-        <v>3518.923563871313</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309627</v>
@@ -7682,10 +7682,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
         <v>2714.947448833287</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7770,7 +7770,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7825,31 +7825,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>63.30438414308191</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>262.8888646577053</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>339.3128264485886</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,16 +8702,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704411</v>
       </c>
       <c r="P11" t="n">
-        <v>170.1140909277316</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,25 +8930,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>341.5962138876764</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>29.61882225792226</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="L20" t="n">
-        <v>126.3855966773241</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476853</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277306</v>
+        <v>398.2509825792569</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277314</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>122.1718867553245</v>
       </c>
       <c r="Q35" t="n">
-        <v>40.02214132148688</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,13 +10835,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>122.1718867553247</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>71.87446026386894</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>277.2206841544156</v>
       </c>
       <c r="Q41" t="n">
-        <v>40.02214132148688</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544156</v>
       </c>
       <c r="Q44" t="n">
-        <v>167.7369666428369</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.63310991212201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.91951642794447</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.3799638097597</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>61.81085815879574</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2451061843206</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>164.1291579284254</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004604</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>59.65819893273815</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.0688182019099</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>234.9442948004883</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>51.55114770987304</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>148.5647744565426</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.9622160619681779</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.9285765075468</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>162.5760987035359</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24412,10 +24412,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.3749467384735</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T28" t="n">
-        <v>18.65949120592992</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2.03827905784317</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26317,13 +26317,13 @@
         <v>123156.2654796424</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
         <v>119124.536066095</v>
       </c>
       <c r="F2" t="n">
-        <v>119124.536066095</v>
+        <v>119124.5360660949</v>
       </c>
       <c r="G2" t="n">
         <v>119124.536066095</v>
@@ -26332,7 +26332,7 @@
         <v>119124.536066095</v>
       </c>
       <c r="I2" t="n">
-        <v>119124.5360660949</v>
+        <v>119124.536066095</v>
       </c>
       <c r="J2" t="n">
         <v>119124.536066095</v>
@@ -26341,19 +26341,19 @@
         <v>119124.536066095</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="O2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501884.6814771929</v>
+        <v>501884.6814771955</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.31263904383</v>
+        <v>83720.31263904125</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156634.5614629959</v>
+        <v>156634.5614629965</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.25531848977</v>
+        <v>19465.25531848914</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950534</v>
+        <v>84741.61795950531</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194330.6670587448</v>
+        <v>194330.6670587441</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>25090.72367499384</v>
       </c>
       <c r="F4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.72367499385</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="K4" t="n">
         <v>25090.72367499384</v>
       </c>
-      <c r="H4" t="n">
-        <v>25090.72367499379</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.72367499383</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.72367499383</v>
-      </c>
       <c r="L4" t="n">
-        <v>40547.88465321288</v>
+        <v>40547.88465321287</v>
       </c>
       <c r="M4" t="n">
+        <v>62292.78252777374</v>
+      </c>
+      <c r="N4" t="n">
+        <v>62292.78252777377</v>
+      </c>
+      <c r="O4" t="n">
+        <v>62292.78252777379</v>
+      </c>
+      <c r="P4" t="n">
         <v>62292.78252777376</v>
-      </c>
-      <c r="N4" t="n">
-        <v>62292.78252777376</v>
-      </c>
-      <c r="O4" t="n">
-        <v>62292.7825277738</v>
-      </c>
-      <c r="P4" t="n">
-        <v>62292.78252777378</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76841.33769237209</v>
+        <v>76841.33769237228</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340947</v>
@@ -26485,16 +26485,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
@@ -26506,7 +26506,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-657873.2244798751</v>
+        <v>-658006.1045420638</v>
       </c>
       <c r="C6" t="n">
-        <v>-244487.6311505424</v>
+        <v>-244487.6311505398</v>
       </c>
       <c r="D6" t="n">
         <v>-160767.3185114986</v>
       </c>
       <c r="E6" t="n">
-        <v>-729727.119856019</v>
+        <v>-729794.315346245</v>
       </c>
       <c r="F6" t="n">
-        <v>-2349.705862612507</v>
+        <v>-2416.901352838329</v>
       </c>
       <c r="G6" t="n">
-        <v>-2349.705862612522</v>
+        <v>-2416.901352838271</v>
       </c>
       <c r="H6" t="n">
-        <v>-2349.705862612464</v>
+        <v>-2416.9013528383</v>
       </c>
       <c r="I6" t="n">
-        <v>-2349.705862612536</v>
+        <v>-2416.901352838329</v>
       </c>
       <c r="J6" t="n">
-        <v>-158984.2673256084</v>
+        <v>-159051.4628158348</v>
       </c>
       <c r="K6" t="n">
-        <v>-21814.96118110232</v>
+        <v>-21882.15667132744</v>
       </c>
       <c r="L6" t="n">
-        <v>-55304.39948254667</v>
+        <v>-55304.39948254671</v>
       </c>
       <c r="M6" t="n">
-        <v>-113256.0766824428</v>
+        <v>-113256.0766824426</v>
       </c>
       <c r="N6" t="n">
-        <v>-28514.45872293734</v>
+        <v>-28514.45872293756</v>
       </c>
       <c r="O6" t="n">
-        <v>-28514.45872293742</v>
+        <v>-28514.45872293743</v>
       </c>
       <c r="P6" t="n">
-        <v>-28514.45872293739</v>
+        <v>-28514.45872293746</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="N2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859258</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322893</v>
+        <v>312.6374684322913</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405954</v>
+        <v>598.6552776405977</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322893</v>
+        <v>312.6374684322913</v>
       </c>
       <c r="C3" t="n">
-        <v>65.10619578479736</v>
+        <v>65.10619578479533</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405954</v>
+        <v>598.6552776405977</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511396023</v>
+        <v>75.631995113958</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405954</v>
+        <v>598.6552776405977</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511396046</v>
+        <v>75.631995113958</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.049188454059</v>
+        <v>340.0491884540589</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405954</v>
+        <v>598.6552776405977</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511396023</v>
+        <v>75.631995113958</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>232.3815338907161</v>
+        <v>150.4013045836092</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.6032504631754</v>
       </c>
       <c r="I2" t="n">
-        <v>162.0217950910659</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5940585367451</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2451061843206</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6710516650733</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>138.9878167651196</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>175.0252640883531</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>161.8181001969421</v>
+        <v>167.4272068744005</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.2147226037219</v>
       </c>
       <c r="I4" t="n">
-        <v>138.4962987703072</v>
+        <v>138.4962987703071</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.50046549375591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.95378551841841</v>
       </c>
       <c r="R4" t="n">
-        <v>151.9441304121514</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>214.1915812011575</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>15.94222735675675</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>261.3179249849477</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>91.56350444468114</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>61.57818430961123</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>239.2918029954105</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>284.6455604508843</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>372.1103817956927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>21.2510596186836</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859199</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859273</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256834043948901</v>
+        <v>1.256834043948909</v>
       </c>
       <c r="H2" t="n">
-        <v>12.87155165259168</v>
+        <v>12.87155165259176</v>
       </c>
       <c r="I2" t="n">
-        <v>48.45409447934005</v>
+        <v>48.45409447934035</v>
       </c>
       <c r="J2" t="n">
-        <v>106.6722184376081</v>
+        <v>106.6722184376088</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8740035179651</v>
+        <v>159.8740035179661</v>
       </c>
       <c r="L2" t="n">
-        <v>198.3378383904663</v>
+        <v>198.3378383904676</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6890608195426</v>
+        <v>220.689060819544</v>
       </c>
       <c r="N2" t="n">
-        <v>224.2600405469124</v>
+        <v>224.2600405469138</v>
       </c>
       <c r="O2" t="n">
-        <v>211.7623970223955</v>
+        <v>211.7623970223968</v>
       </c>
       <c r="P2" t="n">
-        <v>180.734306562407</v>
+        <v>180.7343065624081</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.723937363487</v>
+        <v>135.7239373634878</v>
       </c>
       <c r="R2" t="n">
-        <v>78.94960151320521</v>
+        <v>78.94960151320571</v>
       </c>
       <c r="S2" t="n">
-        <v>28.64010577648561</v>
+        <v>28.64010577648578</v>
       </c>
       <c r="T2" t="n">
-        <v>5.501791027386316</v>
+        <v>5.50179102738635</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1005467235159121</v>
+        <v>0.1005467235159127</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6724654981373771</v>
+        <v>0.6724654981373812</v>
       </c>
       <c r="H3" t="n">
-        <v>6.494600995168879</v>
+        <v>6.49460099516892</v>
       </c>
       <c r="I3" t="n">
-        <v>23.15286912446671</v>
+        <v>23.15286912446686</v>
       </c>
       <c r="J3" t="n">
-        <v>63.53324252358439</v>
+        <v>63.53324252358478</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5884308987886</v>
+        <v>108.5884308987893</v>
       </c>
       <c r="L3" t="n">
-        <v>146.0105459881178</v>
+        <v>146.0105459881187</v>
       </c>
       <c r="M3" t="n">
-        <v>170.3874202955977</v>
+        <v>170.3874202955987</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072295</v>
+        <v>174.8970683072306</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9966485853434</v>
+        <v>159.9966485853444</v>
       </c>
       <c r="P3" t="n">
-        <v>128.4114160434435</v>
+        <v>128.4114160434443</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.83963095522027</v>
+        <v>85.83963095522081</v>
       </c>
       <c r="R3" t="n">
-        <v>41.75184908610839</v>
+        <v>41.75184908610865</v>
       </c>
       <c r="S3" t="n">
-        <v>12.49075168689382</v>
+        <v>12.49075168689389</v>
       </c>
       <c r="T3" t="n">
-        <v>2.710507863106356</v>
+        <v>2.710507863106373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04424115119324851</v>
+        <v>0.04424115119324878</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5637724840582266</v>
+        <v>0.5637724840582301</v>
       </c>
       <c r="H4" t="n">
-        <v>5.012449903717691</v>
+        <v>5.012449903717722</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95417615695104</v>
+        <v>16.95417615695114</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85871462291662</v>
+        <v>39.85871462291686</v>
       </c>
       <c r="K4" t="n">
-        <v>65.50011223876486</v>
+        <v>65.50011223876527</v>
       </c>
       <c r="L4" t="n">
-        <v>83.81759276625672</v>
+        <v>83.81759276625723</v>
       </c>
       <c r="M4" t="n">
-        <v>88.37389947832727</v>
+        <v>88.37389947832781</v>
       </c>
       <c r="N4" t="n">
-        <v>86.27256567411031</v>
+        <v>86.27256567411085</v>
       </c>
       <c r="O4" t="n">
-        <v>79.68667801943009</v>
+        <v>79.68667801943059</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464221</v>
+        <v>68.18571934464264</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327569</v>
+        <v>47.20825773327598</v>
       </c>
       <c r="R4" t="n">
-        <v>25.34926096501807</v>
+        <v>25.34926096501823</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814727</v>
+        <v>9.825016835814788</v>
       </c>
       <c r="T4" t="n">
-        <v>2.408846068248786</v>
+        <v>2.4088460682488</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317603</v>
+        <v>0.03075122640317622</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299561</v>
+        <v>94.72292908299626</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441493</v>
+        <v>263.9295650441503</v>
       </c>
       <c r="L2" t="n">
-        <v>380.2326379709295</v>
+        <v>380.2326379709308</v>
       </c>
       <c r="M2" t="n">
-        <v>439.8563610851023</v>
+        <v>439.8563610851037</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623057</v>
+        <v>432.1939013623071</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634542</v>
+        <v>362.4643668634554</v>
       </c>
       <c r="P2" t="n">
-        <v>271.3000189786201</v>
+        <v>271.3000189786212</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.7332381489421</v>
+        <v>125.733238148943</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.78665119732653</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>235.2122289370083</v>
+        <v>235.2122289370089</v>
       </c>
       <c r="L3" t="n">
-        <v>378.2965115117028</v>
+        <v>378.2965115117037</v>
       </c>
       <c r="M3" t="n">
-        <v>291.1422510312847</v>
+        <v>493.9584501235803</v>
       </c>
       <c r="N3" t="n">
-        <v>522.8977305674497</v>
+        <v>382.8681826724859</v>
       </c>
       <c r="O3" t="n">
-        <v>411.2627234176285</v>
+        <v>411.2627234176294</v>
       </c>
       <c r="P3" t="n">
-        <v>312.8997772690504</v>
+        <v>312.8997772690512</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.9351446050479</v>
+        <v>155.9351446050484</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.230620412882</v>
+        <v>43.23062041288242</v>
       </c>
       <c r="L4" t="n">
-        <v>111.4076180265729</v>
+        <v>111.4076180265734</v>
       </c>
       <c r="M4" t="n">
-        <v>127.9577764401679</v>
+        <v>127.9577764401684</v>
       </c>
       <c r="N4" t="n">
-        <v>130.4047380533389</v>
+        <v>130.4047380533394</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2718059334698</v>
+        <v>104.2718059334703</v>
       </c>
       <c r="P4" t="n">
-        <v>65.4642786095357</v>
+        <v>65.46427860953612</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
         <v>988.434649323059</v>
@@ -35422,16 +35422,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>575.5896386552631</v>
       </c>
       <c r="P11" t="n">
-        <v>568.8760771471033</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>880.517329717903</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>485.2089366502542</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302265</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
@@ -35905,7 +35905,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814171</v>
       </c>
       <c r="L20" t="n">
-        <v>581.9757110696563</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359043</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200628</v>
+        <v>853.8410969715889</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200636</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>520.9338729746961</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.8164461252064</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>630.2248876435438</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>322.6687650675884</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q41" t="n">
-        <v>290.8164461252064</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q44" t="n">
-        <v>418.5312714465564</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
